--- a/DigitalMegaFlare/wwwroot/files/excels/OutTest.xlsx
+++ b/DigitalMegaFlare/wwwroot/files/excels/OutTest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ginpay\source\repos\DigitalMegaFlare\DigitalMegaFlare\wwwroot\files\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7263C60B-5337-4070-873C-54327980727E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{380DF13C-3020-429C-91E0-1189D81750AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Document" sheetId="7" r:id="rId1"/>
@@ -18,8 +18,8 @@
     <sheet name="RootList" sheetId="4" r:id="rId3"/>
     <sheet name="FieldList" sheetId="5" r:id="rId4"/>
     <sheet name="ValueList" sheetId="8" r:id="rId5"/>
-    <sheet name="AaaaOut" sheetId="9" r:id="rId6"/>
-    <sheet name="BbbbOutList" sheetId="10" r:id="rId7"/>
+    <sheet name="Out" sheetId="9" r:id="rId6"/>
+    <sheet name="FieldOutList" sheetId="10" r:id="rId7"/>
     <sheet name="Excel" sheetId="11" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="88">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -217,17 +217,6 @@
   </si>
   <si>
     <t>[StringLength(50)]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Index</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>変数</t>
-    <rPh sb="0" eb="2">
-      <t>ヘンスウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -289,22 +278,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>RootListの何件目かを入れる変数</t>
-    <rPh sb="9" eb="11">
-      <t>ナンケン</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ヘンスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>出力ファイル名</t>
     <rPh sb="0" eb="2">
       <t>シュツリョク</t>
@@ -429,10 +402,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Infrastructure/@(Model.Name).cs</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Aaaa</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -457,6 +426,48 @@
   </si>
   <si>
     <t>Excel</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アップされたExcelのID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cs_asp/crud/ListBox</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Out.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Name1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前1</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Name2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前2</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cs_asp/crud/OutTest</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>test/@(Model.Name).cs</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -494,18 +505,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -526,16 +531,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -886,15 +890,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>19051</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>609601</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>647701</xdr:colOff>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -910,7 +914,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6791326" y="9526"/>
+          <a:off x="6143626" y="247651"/>
           <a:ext cx="1962150" cy="1152524"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -967,13 +971,6 @@
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>赤は触らないこと</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
@@ -987,13 +984,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1181100</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1129,13 +1126,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>28576</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>771526</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1217,13 +1214,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1885950</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1346,13 +1343,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1534,16 +1531,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1558,7 +1555,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3019425" y="714375"/>
+          <a:off x="381000" y="2419350"/>
           <a:ext cx="3838575" cy="1104900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1605,7 +1602,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>AaaaOut</a:t>
+            <a:t>Out</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
@@ -1613,7 +1610,7 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Model.AaaaOut</a:t>
+            <a:t>Model.Out</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
@@ -1660,7 +1657,31 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Model.AaaaOut.Aaaa</a:t>
+            <a:t>Model.Aaaa</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Model.Bbbb</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
@@ -2237,7 +2258,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -2246,7 +2267,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2262,10 +2283,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2299,39 +2320,25 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="3">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
         <v>0</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
+        <v>56</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2347,11 +2354,9 @@
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -2364,22 +2369,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="C1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2391,10 +2396,10 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
         <v>49</v>
-      </c>
-      <c r="D2" t="s">
-        <v>52</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -2411,10 +2416,10 @@
         <v>25</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -2428,16 +2433,16 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>9</v>
@@ -2448,16 +2453,16 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>27</v>
@@ -2468,16 +2473,16 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>27</v>
@@ -2488,16 +2493,16 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2505,16 +2510,36 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E8" t="s">
-        <v>63</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2532,9 +2557,7 @@
   </sheetPr>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -2546,22 +2569,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2590,7 +2613,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -2610,7 +2633,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
@@ -2627,13 +2650,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" t="s">
         <v>38</v>
-      </c>
-      <c r="D5" t="s">
-        <v>40</v>
       </c>
       <c r="E5" t="s">
         <v>35</v>
@@ -2647,13 +2670,13 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
         <v>39</v>
-      </c>
-      <c r="D6" t="s">
-        <v>41</v>
       </c>
       <c r="F6" t="s">
         <v>21</v>
@@ -2664,7 +2687,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
@@ -2684,7 +2707,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
@@ -2709,46 +2732,58 @@
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>55</v>
+      <c r="C3" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2762,10 +2797,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2775,73 +2810,70 @@
     <col min="3" max="3" width="28.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="C1" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2857,12 +2889,74 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2875,18 +2969,18 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>82</v>
+      <c r="B1" s="3" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2894,7 +2988,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2902,7 +2996,7 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2910,7 +3004,7 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
